--- a/data/trans_orig/P36BPD11_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD11_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D84EF720-7563-4757-97CE-8C552546EEA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABF2C19A-BBF1-4E0A-AB6C-E6248021C71A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E48EE2AF-FF0C-41CA-A57F-3DEE5D559A96}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7E269275-1A1F-431F-99D8-D5D84D133353}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="175">
   <si>
     <t>Población según el número de veces que consumen repostería comercial a la semana en 2023 (Tasa respuesta: 99,81%)</t>
   </si>
@@ -74,484 +74,490 @@
     <t>43,43%</t>
   </si>
   <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>54,22%</t>
   </si>
   <si>
     <t>45,03%</t>
   </si>
   <si>
-    <t>38,4%</t>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>51,83%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>Uno o dos a la semana</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>Tres o más a la semana</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>38,72%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>43,18%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>47,09%</t>
+  </si>
+  <si>
+    <t>47,88%</t>
+  </si>
+  <si>
+    <t>44,3%</t>
+  </si>
+  <si>
+    <t>51,18%</t>
+  </si>
+  <si>
+    <t>45,62%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>48,39%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>46,17%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>54,17%</t>
+  </si>
+  <si>
+    <t>47,48%</t>
+  </si>
+  <si>
+    <t>44,54%</t>
+  </si>
+  <si>
+    <t>50,2%</t>
+  </si>
+  <si>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>44,32%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>40,97%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>47,18%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>51,52%</t>
   </si>
   <si>
     <t>53,32%</t>
   </si>
   <si>
-    <t>44,34%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>Uno o dos a la semana</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>36,68%</t>
-  </si>
-  <si>
-    <t>Tres o más a la semana</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>43,18%</t>
-  </si>
-  <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>47,65%</t>
-  </si>
-  <si>
-    <t>47,88%</t>
-  </si>
-  <si>
-    <t>44,74%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
-  </si>
-  <si>
-    <t>45,62%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>48,21%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>39,86%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>46,17%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>54,87%</t>
-  </si>
-  <si>
-    <t>47,48%</t>
-  </si>
-  <si>
-    <t>44,62%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>44,43%</t>
-  </si>
-  <si>
-    <t>51,49%</t>
-  </si>
-  <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
+    <t>45,55%</t>
+  </si>
+  <si>
+    <t>67,52%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>45,81%</t>
+  </si>
+  <si>
+    <t>63,41%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>44,47%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>40,04%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>46,32%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>49,61%</t>
+  </si>
+  <si>
+    <t>51,22%</t>
+  </si>
+  <si>
+    <t>48,08%</t>
+  </si>
+  <si>
+    <t>54,28%</t>
+  </si>
+  <si>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>51,24%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>39,66%</t>
   </si>
   <si>
     <t>35,34%</t>
   </si>
   <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>39,91%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>47,18%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
-  </si>
-  <si>
-    <t>52,0%</t>
-  </si>
-  <si>
-    <t>45,12%</t>
-  </si>
-  <si>
-    <t>72,46%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>45,75%</t>
-  </si>
-  <si>
-    <t>61,55%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>38,94%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>46,32%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>49,81%</t>
-  </si>
-  <si>
-    <t>51,22%</t>
-  </si>
-  <si>
-    <t>47,85%</t>
-  </si>
-  <si>
-    <t>53,92%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
-  </si>
-  <si>
-    <t>46,5%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
   </si>
   <si>
     <t>35,93%</t>
   </si>
   <si>
-    <t>33,72%</t>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
   </si>
   <si>
     <t>17,04%</t>
   </si>
   <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
   </si>
   <si>
     <t>13,44%</t>
   </si>
   <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
   </si>
   <si>
     <t>15,09%</t>
   </si>
   <si>
-    <t>13,64%</t>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
   </si>
   <si>
     <t>45,87%</t>
   </si>
   <si>
-    <t>43,81%</t>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
   </si>
   <si>
     <t>49,93%</t>
   </si>
   <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>55,03%</t>
+    <t>47,9%</t>
+  </si>
+  <si>
+    <t>55,04%</t>
   </si>
   <si>
     <t>48,02%</t>
   </si>
   <si>
-    <t>46,52%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
+    <t>46,39%</t>
+  </si>
+  <si>
+    <t>51,05%</t>
   </si>
   <si>
     <t>36,86%</t>
   </si>
   <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
   </si>
   <si>
     <t>35,68%</t>
   </si>
   <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>37,64%</t>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
   </si>
   <si>
     <t>17,28%</t>
   </si>
   <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
     <t>15,75%</t>
   </si>
   <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -966,7 +972,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A528A9C-E4CC-47A8-B8C0-8F661B8CF9DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{027F4FDD-76EB-4653-9904-361976394D62}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1222,13 +1228,13 @@
         <v>57729</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1243,13 +1249,13 @@
         <v>99383</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" s="7">
         <v>241</v>
@@ -1258,13 +1264,13 @@
         <v>129977</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M7" s="7">
         <v>356</v>
@@ -1273,18 +1279,18 @@
         <v>229360</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -1296,13 +1302,13 @@
         <v>237327</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="H8" s="7">
         <v>516</v>
@@ -1311,13 +1317,13 @@
         <v>283303</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="M8" s="7">
         <v>803</v>
@@ -1326,13 +1332,13 @@
         <v>520631</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1347,13 +1353,13 @@
         <v>192429</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H9" s="7">
         <v>335</v>
@@ -1362,13 +1368,13 @@
         <v>216734</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M9" s="7">
         <v>541</v>
@@ -1377,13 +1383,13 @@
         <v>409162</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P9" s="7" t="s">
-        <v>58</v>
-      </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1398,13 +1404,13 @@
         <v>119907</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>143</v>
@@ -1413,13 +1419,13 @@
         <v>91632</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>261</v>
@@ -1428,13 +1434,13 @@
         <v>211539</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1449,13 +1455,13 @@
         <v>549663</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" s="7">
         <v>994</v>
@@ -1464,13 +1470,13 @@
         <v>591669</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M11" s="7">
         <v>1605</v>
@@ -1479,18 +1485,18 @@
         <v>1141332</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1502,13 +1508,13 @@
         <v>479870</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H12" s="7">
         <v>761</v>
@@ -1517,13 +1523,13 @@
         <v>502438</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>1219</v>
@@ -1532,13 +1538,13 @@
         <v>982308</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1553,13 +1559,13 @@
         <v>380827</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>540</v>
@@ -1568,13 +1574,13 @@
         <v>404410</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>881</v>
@@ -1583,13 +1589,13 @@
         <v>785237</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1604,13 +1610,13 @@
         <v>178551</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>213</v>
@@ -1619,13 +1625,13 @@
         <v>151460</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>378</v>
@@ -1634,13 +1640,13 @@
         <v>330011</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1655,13 +1661,13 @@
         <v>1039248</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H15" s="7">
         <v>1514</v>
@@ -1670,13 +1676,13 @@
         <v>1058308</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M15" s="7">
         <v>2478</v>
@@ -1685,18 +1691,18 @@
         <v>2097556</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1708,13 +1714,13 @@
         <v>343829</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H16" s="7">
         <v>520</v>
@@ -1723,7 +1729,7 @@
         <v>465828</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>100</v>
@@ -1861,13 +1867,13 @@
         <v>728772</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H19" s="7">
         <v>1046</v>
@@ -1876,13 +1882,13 @@
         <v>873587</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M19" s="7">
         <v>1722</v>
@@ -1891,13 +1897,13 @@
         <v>1602359</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1965,7 +1971,7 @@
         <v>353689</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>133</v>
@@ -1980,13 +1986,13 @@
         <v>405776</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>83</v>
+        <v>135</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M21" s="7">
         <v>872</v>
@@ -1995,13 +2001,13 @@
         <v>759465</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>15</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2016,13 +2022,13 @@
         <v>164520</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H22" s="7">
         <v>208</v>
@@ -2031,13 +2037,13 @@
         <v>154346</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M22" s="7">
         <v>376</v>
@@ -2046,13 +2052,13 @@
         <v>318866</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>93</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2067,13 +2073,13 @@
         <v>965403</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H23" s="7">
         <v>1559</v>
@@ -2082,13 +2088,13 @@
         <v>1148364</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M23" s="7">
         <v>2565</v>
@@ -2097,13 +2103,13 @@
         <v>2113767</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2120,13 +2126,13 @@
         <v>1551381</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="H24" s="7">
         <v>2746</v>
@@ -2135,13 +2141,13 @@
         <v>1898339</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="M24" s="7">
         <v>4369</v>
@@ -2150,13 +2156,13 @@
         <v>3449720</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2171,13 +2177,13 @@
         <v>1246750</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="H25" s="7">
         <v>1846</v>
@@ -2186,13 +2192,13 @@
         <v>1356389</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="M25" s="7">
         <v>3027</v>
@@ -2201,13 +2207,13 @@
         <v>2603139</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>161</v>
+        <v>106</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>162</v>
+        <v>84</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2222,13 +2228,13 @@
         <v>584338</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H26" s="7">
         <v>762</v>
@@ -2237,13 +2243,13 @@
         <v>547178</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M26" s="7">
         <v>1330</v>
@@ -2252,13 +2258,13 @@
         <v>1131516</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2273,13 +2279,13 @@
         <v>3382469</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H27" s="7">
         <v>5354</v>
@@ -2288,13 +2294,13 @@
         <v>3801906</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M27" s="7">
         <v>8726</v>
@@ -2303,18 +2309,18 @@
         <v>7184375</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36BPD11_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD11_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABF2C19A-BBF1-4E0A-AB6C-E6248021C71A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{025B11B6-332A-4DB3-B5DC-1D9BCBE4611F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7E269275-1A1F-431F-99D8-D5D84D133353}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{565C4785-BF6F-4DEE-80F5-DACCAA74F0AE}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="149">
   <si>
     <t>Población según el número de veces que consumen repostería comercial a la semana en 2023 (Tasa respuesta: 99,81%)</t>
   </si>
@@ -65,499 +65,421 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Menos de una a la semana</t>
   </si>
   <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>54,22%</t>
-  </si>
-  <si>
-    <t>45,03%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>51,83%</t>
-  </si>
-  <si>
-    <t>44,34%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
+    <t>43,29%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>44,28%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>42,53%</t>
+  </si>
+  <si>
+    <t>47,91%</t>
   </si>
   <si>
     <t>Uno o dos a la semana</t>
   </si>
   <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>36,7%</t>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>37,54%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
   </si>
   <si>
     <t>Tres o más a la semana</t>
   </si>
   <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>38,72%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>43,18%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>47,09%</t>
-  </si>
-  <si>
-    <t>47,88%</t>
-  </si>
-  <si>
-    <t>44,3%</t>
-  </si>
-  <si>
-    <t>51,18%</t>
-  </si>
-  <si>
-    <t>45,62%</t>
-  </si>
-  <si>
-    <t>42,85%</t>
-  </si>
-  <si>
-    <t>48,39%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
-    <t>46,17%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>54,17%</t>
-  </si>
-  <si>
-    <t>47,48%</t>
-  </si>
-  <si>
-    <t>44,54%</t>
-  </si>
-  <si>
-    <t>50,2%</t>
-  </si>
-  <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>44,32%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
+    <t>55,35%</t>
+  </si>
+  <si>
+    <t>42,87%</t>
+  </si>
+  <si>
+    <t>75,17%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>44,97%</t>
+  </si>
+  <si>
+    <t>50,57%</t>
+  </si>
+  <si>
+    <t>52,06%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>67,28%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
   </si>
   <si>
     <t>40,38%</t>
   </si>
   <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>40,97%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>38,4%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>48,02%</t>
+  </si>
+  <si>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>52,5%</t>
+  </si>
+  <si>
+    <t>57,19%</t>
+  </si>
+  <si>
+    <t>43,7%</t>
+  </si>
+  <si>
+    <t>76,37%</t>
+  </si>
+  <si>
+    <t>53,24%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>72,69%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>49,05%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>53,5%</t>
+  </si>
+  <si>
+    <t>48,1%</t>
+  </si>
+  <si>
+    <t>42,81%</t>
+  </si>
+  <si>
+    <t>50,81%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>52,26%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>49,41%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>62,06%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>46,86%</t>
+  </si>
+  <si>
+    <t>59,52%</t>
+  </si>
+  <si>
+    <t>49,99%</t>
+  </si>
+  <si>
+    <t>46,67%</t>
+  </si>
+  <si>
+    <t>56,99%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
   </si>
   <si>
     <t>12,47%</t>
   </si>
   <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>47,18%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>51,52%</t>
-  </si>
-  <si>
-    <t>53,32%</t>
-  </si>
-  <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>67,52%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>45,81%</t>
-  </si>
-  <si>
-    <t>63,41%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>44,47%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>40,04%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>46,32%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>49,61%</t>
-  </si>
-  <si>
-    <t>51,22%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
-  </si>
-  <si>
-    <t>54,28%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>51,24%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>49,93%</t>
-  </si>
-  <si>
-    <t>47,9%</t>
-  </si>
-  <si>
-    <t>55,04%</t>
-  </si>
-  <si>
-    <t>48,02%</t>
-  </si>
-  <si>
-    <t>46,39%</t>
-  </si>
-  <si>
-    <t>51,05%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -972,8 +894,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{027F4FDD-76EB-4653-9904-361976394D62}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{680FB9C2-9950-4AC6-8AD5-5F18FAA1E37C}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1090,10 +1012,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>53</v>
+        <v>340</v>
       </c>
       <c r="D4" s="7">
-        <v>43160</v>
+        <v>273936</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1105,10 +1027,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>115</v>
+        <v>631</v>
       </c>
       <c r="I4" s="7">
-        <v>58528</v>
+        <v>319684</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1120,10 +1042,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>168</v>
+        <v>971</v>
       </c>
       <c r="N4" s="7">
-        <v>101688</v>
+        <v>593620</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1141,10 +1063,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>29</v>
+        <v>235</v>
       </c>
       <c r="D5" s="7">
-        <v>27033</v>
+        <v>212126</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1156,10 +1078,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>80</v>
+        <v>415</v>
       </c>
       <c r="I5" s="7">
-        <v>42910</v>
+        <v>240917</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1171,10 +1093,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>109</v>
+        <v>650</v>
       </c>
       <c r="N5" s="7">
-        <v>69943</v>
+        <v>453043</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1192,10 +1114,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>33</v>
+        <v>151</v>
       </c>
       <c r="D6" s="7">
-        <v>29190</v>
+        <v>146727</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1207,10 +1129,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>46</v>
+        <v>189</v>
       </c>
       <c r="I6" s="7">
-        <v>28539</v>
+        <v>113193</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1222,19 +1144,19 @@
         <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>79</v>
+        <v>340</v>
       </c>
       <c r="N6" s="7">
-        <v>57729</v>
+        <v>259921</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1243,102 +1165,102 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>115</v>
+        <v>726</v>
       </c>
       <c r="D7" s="7">
-        <v>99383</v>
+        <v>632789</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H7" s="7">
-        <v>241</v>
+        <v>1235</v>
       </c>
       <c r="I7" s="7">
-        <v>129977</v>
+        <v>673794</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M7" s="7">
-        <v>356</v>
+        <v>1961</v>
       </c>
       <c r="N7" s="7">
-        <v>229360</v>
+        <v>1306583</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>287</v>
+        <v>458</v>
       </c>
       <c r="D8" s="7">
-        <v>237327</v>
+        <v>660251</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H8" s="7">
-        <v>516</v>
+        <v>761</v>
       </c>
       <c r="I8" s="7">
-        <v>283303</v>
+        <v>458904</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M8" s="7">
-        <v>803</v>
+        <v>1219</v>
       </c>
       <c r="N8" s="7">
-        <v>520631</v>
+        <v>1119155</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1347,49 +1269,49 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>206</v>
+        <v>341</v>
       </c>
       <c r="D9" s="7">
-        <v>192429</v>
+        <v>357022</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H9" s="7">
-        <v>335</v>
+        <v>540</v>
       </c>
       <c r="I9" s="7">
-        <v>216734</v>
+        <v>360158</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M9" s="7">
-        <v>541</v>
+        <v>881</v>
       </c>
       <c r="N9" s="7">
-        <v>409162</v>
+        <v>717180</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1398,49 +1320,49 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>118</v>
+        <v>165</v>
       </c>
       <c r="D10" s="7">
-        <v>119907</v>
+        <v>175591</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H10" s="7">
-        <v>143</v>
+        <v>213</v>
       </c>
       <c r="I10" s="7">
-        <v>91632</v>
+        <v>137964</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M10" s="7">
-        <v>261</v>
+        <v>378</v>
       </c>
       <c r="N10" s="7">
-        <v>211539</v>
+        <v>313555</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1449,102 +1371,102 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>611</v>
+        <v>964</v>
       </c>
       <c r="D11" s="7">
-        <v>549663</v>
+        <v>1192864</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H11" s="7">
-        <v>994</v>
+        <v>1514</v>
       </c>
       <c r="I11" s="7">
-        <v>591669</v>
+        <v>957026</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M11" s="7">
-        <v>1605</v>
+        <v>2478</v>
       </c>
       <c r="N11" s="7">
-        <v>1141332</v>
+        <v>2149890</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>458</v>
+        <v>342</v>
       </c>
       <c r="D12" s="7">
-        <v>479870</v>
+        <v>338402</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H12" s="7">
-        <v>761</v>
+        <v>520</v>
       </c>
       <c r="I12" s="7">
-        <v>502438</v>
+        <v>533365</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M12" s="7">
-        <v>1219</v>
+        <v>862</v>
       </c>
       <c r="N12" s="7">
-        <v>982308</v>
+        <v>871767</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1553,49 +1475,49 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>341</v>
+        <v>250</v>
       </c>
       <c r="D13" s="7">
-        <v>380827</v>
+        <v>277577</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H13" s="7">
-        <v>540</v>
+        <v>374</v>
       </c>
       <c r="I13" s="7">
-        <v>404410</v>
+        <v>260427</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M13" s="7">
-        <v>881</v>
+        <v>624</v>
       </c>
       <c r="N13" s="7">
-        <v>785237</v>
+        <v>538004</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1604,49 +1526,49 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>165</v>
+        <v>84</v>
       </c>
       <c r="D14" s="7">
-        <v>178551</v>
+        <v>88702</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
-        <v>213</v>
+        <v>152</v>
       </c>
       <c r="I14" s="7">
-        <v>151460</v>
+        <v>138855</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
-        <v>378</v>
+        <v>236</v>
       </c>
       <c r="N14" s="7">
-        <v>330011</v>
+        <v>227556</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1655,102 +1577,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>964</v>
+        <v>676</v>
       </c>
       <c r="D15" s="7">
-        <v>1039248</v>
+        <v>704680</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H15" s="7">
-        <v>1514</v>
+        <v>1046</v>
       </c>
       <c r="I15" s="7">
-        <v>1058308</v>
+        <v>932646</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M15" s="7">
-        <v>2478</v>
+        <v>1722</v>
       </c>
       <c r="N15" s="7">
-        <v>2097556</v>
+        <v>1637327</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>342</v>
+        <v>483</v>
       </c>
       <c r="D16" s="7">
-        <v>343829</v>
+        <v>435429</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="H16" s="7">
-        <v>520</v>
+        <v>834</v>
       </c>
       <c r="I16" s="7">
-        <v>465828</v>
+        <v>536117</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M16" s="7">
-        <v>862</v>
+        <v>1317</v>
       </c>
       <c r="N16" s="7">
-        <v>809657</v>
+        <v>971546</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1759,40 +1681,40 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>250</v>
+        <v>355</v>
       </c>
       <c r="D17" s="7">
-        <v>292773</v>
+        <v>335797</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G17" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H17" s="7">
+        <v>517</v>
+      </c>
+      <c r="I17" s="7">
+        <v>418057</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="H17" s="7">
-        <v>374</v>
-      </c>
-      <c r="I17" s="7">
-        <v>286559</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>110</v>
       </c>
       <c r="M17" s="7">
-        <v>624</v>
+        <v>872</v>
       </c>
       <c r="N17" s="7">
-        <v>579332</v>
+        <v>753853</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>111</v>
@@ -1810,49 +1732,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>84</v>
+        <v>168</v>
       </c>
       <c r="D18" s="7">
-        <v>92170</v>
+        <v>155605</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="H18" s="7">
+        <v>208</v>
+      </c>
+      <c r="I18" s="7">
+        <v>138928</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="H18" s="7">
-        <v>152</v>
-      </c>
-      <c r="I18" s="7">
-        <v>121200</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>376</v>
+      </c>
+      <c r="N18" s="7">
+        <v>294534</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="M18" s="7">
-        <v>236</v>
-      </c>
-      <c r="N18" s="7">
-        <v>213370</v>
-      </c>
-      <c r="O18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1861,102 +1783,102 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>676</v>
+        <v>1006</v>
       </c>
       <c r="D19" s="7">
-        <v>728772</v>
+        <v>926831</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H19" s="7">
-        <v>1046</v>
+        <v>1559</v>
       </c>
       <c r="I19" s="7">
-        <v>873587</v>
+        <v>1093102</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M19" s="7">
-        <v>1722</v>
+        <v>2565</v>
       </c>
       <c r="N19" s="7">
-        <v>1602359</v>
+        <v>2019933</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>483</v>
+        <v>1623</v>
       </c>
       <c r="D20" s="7">
-        <v>447195</v>
+        <v>1708017</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H20" s="7">
+        <v>2746</v>
+      </c>
+      <c r="I20" s="7">
+        <v>1848070</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="H20" s="7">
-        <v>834</v>
-      </c>
-      <c r="I20" s="7">
-        <v>588241</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>4369</v>
+      </c>
+      <c r="N20" s="7">
+        <v>3556088</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1317</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1035436</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1965,49 +1887,49 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>355</v>
+        <v>1181</v>
       </c>
       <c r="D21" s="7">
-        <v>353689</v>
+        <v>1182522</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="F21" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H21" s="7">
+        <v>1846</v>
+      </c>
+      <c r="I21" s="7">
+        <v>1279558</v>
+      </c>
+      <c r="J21" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="K21" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="H21" s="7">
-        <v>517</v>
-      </c>
-      <c r="I21" s="7">
-        <v>405776</v>
-      </c>
-      <c r="J21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="M21" s="7">
+        <v>3027</v>
+      </c>
+      <c r="N21" s="7">
+        <v>2462079</v>
+      </c>
+      <c r="O21" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="L21" s="7" t="s">
+      <c r="P21" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="M21" s="7">
-        <v>872</v>
-      </c>
-      <c r="N21" s="7">
-        <v>759465</v>
-      </c>
-      <c r="O21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2016,49 +1938,49 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>168</v>
+        <v>568</v>
       </c>
       <c r="D22" s="7">
-        <v>164520</v>
+        <v>566626</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>762</v>
+      </c>
+      <c r="I22" s="7">
+        <v>528940</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="H22" s="7">
-        <v>208</v>
-      </c>
-      <c r="I22" s="7">
-        <v>154346</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>1330</v>
+      </c>
+      <c r="N22" s="7">
+        <v>1095566</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="M22" s="7">
-        <v>376</v>
-      </c>
-      <c r="N22" s="7">
-        <v>318866</v>
-      </c>
-      <c r="O22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2067,268 +1989,61 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>1006</v>
+        <v>3372</v>
       </c>
       <c r="D23" s="7">
-        <v>965403</v>
+        <v>3457165</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H23" s="7">
-        <v>1559</v>
+        <v>5354</v>
       </c>
       <c r="I23" s="7">
-        <v>1148364</v>
+        <v>3656568</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M23" s="7">
-        <v>2565</v>
+        <v>8726</v>
       </c>
       <c r="N23" s="7">
-        <v>2113767</v>
+        <v>7113733</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>1623</v>
-      </c>
-      <c r="D24" s="7">
-        <v>1551381</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="H24" s="7">
-        <v>2746</v>
-      </c>
-      <c r="I24" s="7">
-        <v>1898339</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="M24" s="7">
-        <v>4369</v>
-      </c>
-      <c r="N24" s="7">
-        <v>3449720</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="7">
-        <v>1181</v>
-      </c>
-      <c r="D25" s="7">
-        <v>1246750</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="H25" s="7">
-        <v>1846</v>
-      </c>
-      <c r="I25" s="7">
-        <v>1356389</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="M25" s="7">
-        <v>3027</v>
-      </c>
-      <c r="N25" s="7">
-        <v>2603139</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="7">
-        <v>568</v>
-      </c>
-      <c r="D26" s="7">
-        <v>584338</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="H26" s="7">
-        <v>762</v>
-      </c>
-      <c r="I26" s="7">
-        <v>547178</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="M26" s="7">
-        <v>1330</v>
-      </c>
-      <c r="N26" s="7">
-        <v>1131516</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>3372</v>
-      </c>
-      <c r="D27" s="7">
-        <v>3382469</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H27" s="7">
-        <v>5354</v>
-      </c>
-      <c r="I27" s="7">
-        <v>3801906</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="M27" s="7">
-        <v>8726</v>
-      </c>
-      <c r="N27" s="7">
-        <v>7184375</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>174</v>
+      <c r="A24" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
